--- a/2019/Rockport/Rockport Report.xlsx
+++ b/2019/Rockport/Rockport Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Rockport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59EFAA11-C715-4B71-B80E-740C7BF78BC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D3030D-89CA-4715-9B76-311CB89A30B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{674343A5-2EB2-41D1-8C1B-CAF58DC40512}"/>
+    <workbookView xWindow="5115" yWindow="1410" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{674343A5-2EB2-41D1-8C1B-CAF58DC40512}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -310,15 +310,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -328,6 +319,15 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2625,12 +2625,12 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="12"/>
@@ -2679,12 +2679,12 @@
       <c r="D5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -2835,12 +2835,12 @@
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -2883,12 +2883,12 @@
       <c r="D5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -2944,7 +2944,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F94328-B640-403B-974F-D89B1F9D45B8}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
@@ -2970,25 +2970,25 @@
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="3" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="21"/>
+      <c r="H2" s="21"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
     </row>
     <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
@@ -3013,7 +3013,7 @@
       <c r="M3" s="5"/>
     </row>
     <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="7">
@@ -3037,7 +3037,7 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="7"/>
@@ -3051,17 +3051,17 @@
       <c r="F5" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G5" s="18" t="s">
+      <c r="G5" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="H5" s="18"/>
-      <c r="I5" s="18"/>
-      <c r="J5" s="18"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="L5" s="7"/>
       <c r="M5" s="7"/>
     </row>
     <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="17" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="7"/>
@@ -3122,7 +3122,7 @@
       <c r="A10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="22" t="s">
+      <c r="E10" s="19" t="s">
         <v>32</v>
       </c>
     </row>
@@ -3140,7 +3140,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C538E6C-E853-46E0-8DF8-C8F2F75A224C}">
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -3151,12 +3151,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
@@ -3177,12 +3177,12 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="18"/>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
+      <c r="B4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
     </row>
     <row r="5" spans="1:4" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
@@ -3233,7 +3233,7 @@
       <c r="A11" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="20" t="s">
         <v>23</v>
       </c>
     </row>
